--- a/data/trans_dic/P20-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P20-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 7,34</t>
+          <t>3,31; 7,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,05; 7,67</t>
+          <t>3,0; 7,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,98; 8,78</t>
+          <t>3,98; 8,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,28; 8,45</t>
+          <t>4,45; 9,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,77; 9,33</t>
+          <t>3,98; 9,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,78; 15,06</t>
+          <t>7,64; 14,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,7; 13,34</t>
+          <t>6,89; 13,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,97; 9,2</t>
+          <t>4,98; 9,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,04; 7,28</t>
+          <t>4,01; 7,23</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,48; 9,7</t>
+          <t>5,51; 9,76</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,72; 9,96</t>
+          <t>5,8; 9,96</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,24; 8,19</t>
+          <t>5,25; 8,41</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,31; 6,67</t>
+          <t>2,41; 6,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,42; 6,78</t>
+          <t>2,59; 6,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,15; 8,14</t>
+          <t>3,31; 8,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,15; 7,07</t>
+          <t>3,21; 7,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,4; 11,28</t>
+          <t>5,42; 11,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,97; 13,54</t>
+          <t>6,73; 13,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,52; 12,82</t>
+          <t>6,61; 12,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,41; 10,02</t>
+          <t>5,4; 10,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,56; 7,91</t>
+          <t>4,33; 7,96</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,91; 8,86</t>
+          <t>5,01; 8,61</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,61; 9,52</t>
+          <t>5,58; 9,48</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,75; 7,67</t>
+          <t>4,64; 7,58</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,47; 5,71</t>
+          <t>2,42; 5,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,63; 10,35</t>
+          <t>5,78; 10,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,28; 8,49</t>
+          <t>4,29; 8,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 8,58</t>
+          <t>1,75; 8,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,6; 14,93</t>
+          <t>6,08; 15,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,69; 12,55</t>
+          <t>5,64; 12,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,22; 15,95</t>
+          <t>5,24; 15,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,93; 15,45</t>
+          <t>5,98; 15,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,76; 7,19</t>
+          <t>3,76; 7,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,38; 10,25</t>
+          <t>6,3; 10,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,08; 9,25</t>
+          <t>5,2; 9,24</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,33; 8,85</t>
+          <t>2,11; 8,66</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,46; 5,95</t>
+          <t>3,52; 5,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 7,86</t>
+          <t>5,09; 7,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,65; 6,26</t>
+          <t>3,59; 6,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,39; 7,23</t>
+          <t>4,46; 7,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,94; 11,15</t>
+          <t>6,8; 11,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,64; 13,25</t>
+          <t>8,4; 12,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,32; 11,58</t>
+          <t>7,22; 11,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,71; 7,56</t>
+          <t>2,83; 7,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,19; 7,28</t>
+          <t>5,18; 7,23</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,78; 9,29</t>
+          <t>6,87; 9,39</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,54; 7,79</t>
+          <t>5,51; 7,72</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,91; 6,75</t>
+          <t>3,94; 6,76</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,41; 6,8</t>
+          <t>2,7; 7,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,32; 9,84</t>
+          <t>5,09; 10,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,11; 5,21</t>
+          <t>2,17; 5,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,11; 10,92</t>
+          <t>6,25; 10,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,11; 9,83</t>
+          <t>5,08; 9,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,28; 12,85</t>
+          <t>8,41; 12,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,62; 8,27</t>
+          <t>4,71; 8,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,47; 6,62</t>
+          <t>3,55; 6,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,63; 7,83</t>
+          <t>4,64; 7,81</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,62; 11,14</t>
+          <t>7,62; 10,98</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,93; 6,44</t>
+          <t>3,93; 6,35</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,84; 7,67</t>
+          <t>4,76; 7,57</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,61</t>
+          <t>0,3; 3,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,46</t>
+          <t>1,43; 5,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,63; 5,98</t>
+          <t>1,64; 5,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,34; 4,85</t>
+          <t>0,24; 3,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,25; 7,98</t>
+          <t>5,08; 8,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,23; 9,42</t>
+          <t>6,27; 9,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,58; 7,71</t>
+          <t>4,67; 7,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,05; 7,0</t>
+          <t>4,11; 7,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,33; 6,65</t>
+          <t>4,41; 6,77</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>5,38; 8,17</t>
+          <t>5,56; 8,22</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,26; 6,88</t>
+          <t>4,25; 7,03</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,29; 5,87</t>
+          <t>3,3; 5,79</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,46; 4,86</t>
+          <t>3,51; 4,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,25; 7,0</t>
+          <t>5,22; 6,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,13; 5,57</t>
+          <t>4,09; 5,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,29; 6,47</t>
+          <t>4,28; 6,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,48; 8,3</t>
+          <t>6,55; 8,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,43; 10,51</t>
+          <t>8,45; 10,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,9; 8,83</t>
+          <t>6,87; 8,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,79; 6,78</t>
+          <t>4,75; 6,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,21; 6,32</t>
+          <t>5,26; 6,41</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,2; 8,54</t>
+          <t>7,11; 8,48</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,74; 6,98</t>
+          <t>5,72; 6,95</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,84; 6,42</t>
+          <t>4,94; 6,42</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha estado ingresada en un hospital en los últimos 12 meses</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>23692</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>21187</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>26212</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>31196</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>19133</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>34513</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>33322</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>31475</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>42825</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>55700</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>59534</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>62671</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>15679; 34892</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>13126; 33108</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>17086; 37724</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>22505; 46342</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12209; 28690</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>24020; 46934</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>23911; 46268</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>22266; 41567</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>31262; 56451</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>41408; 73356</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>45027; 77337</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>50028; 80165</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>15299</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>16898</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>20534</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>21715</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>29316</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>33318</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>34280</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>28809</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>44615</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>50216</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>54814</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>50524</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>8859; 25255</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>10843; 27583</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>12492; 30861</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>14502; 32412</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>20141; 42041</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>22739; 46011</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>24620; 47434</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>20651; 38466</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>31957; 58835</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>37901; 65193</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>41859; 71071</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>38706; 63280</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>21292</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>49191</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>31910</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>31827</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>16549</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>22933</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>15993</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15750</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>37840</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>72124</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>47903</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>47576</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13106; 30558</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>36358; 65043</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>22380; 44420</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11687; 55618</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10208; 26348</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>14677; 32493</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8703; 25809</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9978; 25904</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>26732; 51501</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>56008; 90231</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>35753; 63597</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>17623; 72322</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>56370</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>73652</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>53940</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>60022</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>63034</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>81304</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>76789</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>52221</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>119404</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>154956</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>130729</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>112243</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>43604; 72050</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>58938; 92285</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>41293; 70323</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>46111; 78029</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>48558; 79076</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>64367; 99431</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>59658; 92833</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>27701; 73005</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>101164; 141182</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>132347; 180846</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>108806; 152489</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>79380; 136065</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>15155</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>38097</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>21858</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>39704</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>40955</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>79040</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>46717</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>41617</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>56110</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>117137</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>68574</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>81321</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9452; 24594</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>25993; 51556</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>13444; 32118</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>29671; 52194</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>28909; 54545</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>64049; 98742</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>34807; 62810</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>29744; 55920</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>42648; 71809</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>96939; 139655</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>53444; 86232</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>62545; 99409</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3619</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>7879</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>9026</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2883</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>80354</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>84969</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>66239</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>40568</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>83973</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>92848</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>75266</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>43450</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>888; 10885</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>3789; 13985</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4701; 16355</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>568; 8688</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>63479; 99869</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>69535; 103268</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>50506; 85256</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>31274; 53676</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>68197; 104676</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>76468; 112899</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>58228; 96249</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>33080; 58007</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>135426</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>206904</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>163481</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>187346</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>249341</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>336077</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>273339</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>210439</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>384767</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>542981</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>436820</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>397785</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>114730; 160050</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>178552; 234158</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>138505; 188784</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>144461; 217286</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>221383; 283697</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>299847; 374841</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>242521; 306227</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>169874; 239486</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>349964; 425773</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>495234; 590830</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>395495; 480553</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>343434; 446374</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P20-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P20-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
